--- a/deuChatbot/research_result/results/sem_score/sem_version_1(3500_0).xlsx
+++ b/deuChatbot/research_result/results/sem_score/sem_version_1(3500_0).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6113,61 +6113,3478 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기고사는 다음과 같이 구성되어 있습니다:
+1. **모집단위**: 시각디자인, 산업디자인, 공예디자인
+2. **실기종목**:
+   - 시각디자인
+   - 산업디자인
+   - 공예디자인
+3. **종목별 배점(비율)**: 각 종목은 총 700점 중 70%를 차지합니다 (즉, 490점).
+4. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+5. **실기주제**: 당일 추첨을 통해 주제A와 주제B를 각각 1개씩 선정하여 연결된 주제로 작업합니다.
+6. **화지크기**: 켄트지 3절 (약 297mm x 420mm)
+7. **시간**: 5시간
+주요 점은 다음과 같습니다:
+- 각 종목은 같은 화지 크기를 사용하며, 시간은 동일합니다.
+- 주제는 당일 추첨을 통해 결정되므로 미리 준비할 수 있는 특정 주제는 없습니다.
+- 표현 도구는 제한되어 있으며, 제공된 사물과 이미지를 표현하는 데 집중해야 합니다.
+이러한 구성을 통해 지원자들은 다양한 디자인 기법과 창의력을 평가받게 됩니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.7758017298579216</v>
+        <v>0.910920262336731</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목은 시각디자인, 산업디자인, 공예디자인 중 택1입니다.
+- **준비물**:
+  - 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- **실기주제**: 
+  - 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다.
+    - 예시: 잠자리와 저울
+    - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+    - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- **화지크기**: 켄트지 3절
+- **시간**: 5시간
+이 정보는 디자인조형학과의 실기종목 중 하나인 시각디자인, 산업디자인, 공예디자인 모두에 적용됩니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.7624943435192109</v>
+        <v>0.9384675025939941</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과에서 인정하는 배드민턴(남)과 축구(남)의 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남):
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남):
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.9529847502708435</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용될 수 있는 주제들은 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B 각각에서 1개씩을 선택하여 연결된 주제를 만드는 작업을 수행해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.9665616750717163</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>从提供的信息来看，东义大学的学生部考试类型中并没有直接提到出勤记录（출석점수）会被考虑。具体来说：
+1. 在"나군 학생부교과(농어촌학생전형) - 정원외"的评分标准表中，并没有提及出勤记录。
+2. 在"나군 학생부종합(조기취업형계약학과전형) - 정원외"的评分标准表中，虽然提到了一些与学生表现相关的方面（如共同体能力、学业能力和专业适应性），但也没有特别提到出勤记录。
+3. 从其他表格内容来看，主要关注的是学生的学业成绩、课外活动和社会实践等，并没有明确指出会考虑出勤记录。
+因此，根据提供的信息，东义大学的学生部考试类型中不包含直接的出勤记录评分标准。如果有更详细的规定或政策，请参考学校官方发布的最新指南或联系招生办公室获取准确信息。</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.578209400177002</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>9명을 모집합니다.
+이 정보는 "수능성적 반영방법(가군, 나군, 다군 동일)" 표에서 확인할 수 있습니다. 해당 표의 "인문사회과학대학 / 국어국문학과" 행을 보면, 가군 일반학생 전형으로 모집 인원이 9명이라고 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.8115589022636414</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 / 
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 표에서 얻었습니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.7993823289871216</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>22명입니다.
+의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.7971245050430298</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>以下是按照您要求的格式整理的内容：
+[표 속성]
+``` 등급 / 점수 ```
+[표 내용]
+```
+1 / 139 /
+2 / 131 /
+3 / 123 /
+4 / 115 /
+5 / 107 /
+6 / 99 /
+7 / 91 /
+8 / 83 /
+9 / 75 /
+```</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.7315449714660645</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 
+이유는 다음과 같습니다:
+1. 지원 자격 조건에 따르면, "농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다."
+2. 예술고는 이 조건에서 명시적으로 제외되어 있습니다.
+따라서 예술고 학생은 농어촌학생전형으로 지원하기 위해서는 일반 고등학교를 졸업하거나 특수목적고 중 제외된 분야가 아닌 다른 특수목적고를 졸업해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.9637585878372192</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>레저斯ports学和女生成绩记录与分数如下：
+- 成绩等级：4等
+- 跳远距离（厘米）：252~255
+- 分数：175
+所以，对于女子来说，在4等成绩等级下，制式跳远的距离在252到255厘米之间可以获得175分。</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.1749822348356247</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>12%입니다. 
+경기지도학과의 전형요소 반영비율에서 다음과 같이 나와 있습니다:
+[표 내용]
+```
+경기지도학과 / { 18% /  12% /  70% / } /
+```
+이 중 12%가 출결상황에 해당합니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.861947238445282</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>4명을 모집합니다. 
+이 정보는 "전형별 모집단위별 모집인원" 표에서 확인할 수 있습니다. 해당 표의 내용 중 물리치료학과 관련 부분을 보면, 공과대학에 속한 물리치료학과의 정원 내 모집인원이 4명으로 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.6478037238121033</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>提供的表格信息中并没有直接提到2024学年NA军设计造型学专业实践考试的具体日期。根据给定的信息，我们只能知道该专业的实践考试是存在的，并且属于NA军实操/实绩（普通学生招生）类别的一部分，但具体的考试时间没有列出。
+为了获取准确的考试日期，建议直接访问学校官方网站或联系学校的招生办公室以获得最新的官方信息。</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.4077067673206329</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준은 다음과 같습니다:
+- 국어(화법과작문 또는 언어와매체) : 25%
+- 수학(확률과통계 또는 미적분 또는 기하) : 25%
+- 영어 : 25%
+- 탐구 (사회탐구 또는 과학탐구 - 2개 과목 합) : 25%
+즉, 국어, 수학, 영어, 탐구 영역 중 상위 3개 영역의 표준점수 및 등급 점수를 반영하며, 이들 영역의 최저기준을 충족해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.6042589545249939</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로 확인된 것은 다음과 같습니다:
+1. 미래융합대학 - 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+2. 미래융합대학 - 부동산자산경영학부 (부동산투자학, 부동산개발경영학)
+3. 인문사회과학대학 - 심리학과
+4. 공과대학 - 로봇자동화공학과
+위와 같이 4개의 신설 학과가 있습니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.9678226113319397</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 비율은 [표 내용]에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.9562423229217529</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 **한의예과**에서 수능 가산점을 적용합니다. 
+특히, 한의예과의 경우 다음과 같이 수능 가산점이 부여됩니다:
+- **수학(미적분/기하) 응시자**: 수학 취득 표준점수의 10%를 가산점으로 부여
+이는 다른 학과에서는 적용되지 않으며, 한의예과에서만 해당하는 특별한 정책입니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.8729355335235596</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 수능 성적은 다음과 같이 반영됩니다:
+1. 모든 모집단위에 대해 수능 성적이 100% 반영됩니다.
+2. 실기/실적 기반 모집단위인 레저스포츠학과와 태권도학과는 수능 성적을 30%로 반영하고, 실기고사는 70%로 반영합니다.
+3. 수능 성적은 '58페이지 V. 수능성적 반영방법'에서 자세히 설명되어 있습니다.
+4. 수능 영역별 반영 비율:
+   - 국어: 표준점수
+   - 수학: 미적분 또는 기하의 표준점수 (미적분 응시자는 10% 가산점)
+   - 영어: 등급에 따른 점수
+5. 탐구 영역은 사회탐구 또는 과학탐구 중 선택한 두 과목의 표준점수를 합산하여 반영합니다.
+이렇게 수능 성적이 전반적으로 100% 반영되며, 일부 실기 중심 모집단위에서는 실기가 더 큰 비중을 차지하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.8782046437263489</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 1월 16일(화)에 실시됩니다.
+관련 정보는 다음과 같습니다:
+- **날짜:** 2024. 01. 16.(화)
+- **대기실 및 입실시간 안내:** 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인 가능합니다.
+이 날짜와 시간을 참고하여 준비하시면 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.7963181734085083</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외됩니다.
+이러한 결론은 "2024학년도 주요 변경사항" 표에서 확인할 수 있습니다:
+- 디자인조형학과는 모집중지
+- 체육학과는 모집중지
+- 경기지도학과는 신설되었으나, 나군에서는 제외됨
+따라서 나군 수능(일반학생전형)에서 해당 학과들은 지원이 불가능합니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.957281231880188</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 다군 전형에서 수능 최저기준은 없습니다.
+관련 정보는 다음과 같습니다:
+```markdown
+수능 위주 / 다군 수능(일반학생전형) 전 모집단위 / 180 / 일괄 합산 / { 0 /  0 /  0 /  0 /  0 /  100 / } / 수능최저기준 없음 /
+```
+이 항목에서 "수능최저기준 없음"이라는 내용이 명시되어 있어, 다군 전형에서는 수능 최저기준이 적용되지 않는 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.5437213182449341</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+이 외에도 일부 학과는 신설되었거나 전공 모집을 중단하였습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.9904575347900391</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형 일정에 따르면, 원서접수 마감일은 2024년 1월 6일(토) 18시 정각입니다.
+주요 유의사항:
+- 이 시간 이후에는 원서 접수 사이트 접속이 차단됩니다.
+- 사전에 미리 접속하여 지원 내용 입력 및 전형료 결제를 완료해야 합니다.
+- 마감 시한까지 원서접수를 완료하지 못한 경우, 지원자 본인의 책임으로 간주됩니다.
+따라서 원서접수는 2024년 1월 6일(토) 18시 정각 이전에 완료해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.8918184041976929</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요 전형 요소 변화는 다음과 같습니다:
+1. **다군 수능(일반학생전형)**
+   - 전형요소 반영비율이 100%로 변경되었습니다.
+   - 수능성적 반영방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하도록 되어 있습니다.
+2. **나군 실기/실적(경기실적우수자전형)**
+   - 종목별 서류심사 기준 및 점수표가 추가되었습니다.
+   - 동점자 처리기준이 상세화되어 있습니다.
+3. **나군 학생부교과(농어촌학생전형) - 정원외**
+   - 최대선발 가능인원이 각 모집단위별로 명시되었습니다.
+   - 지원자격 및 제출서류가 상세화되었습니다.
+4. **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**
+   - 전형요소 반영비율이 공통적으로 70% (서류), 30% (면접)로 설정되었습니다.
+   - 서류평가 영역별 세부 평가 기준 및 내용이 상세화되었습니다.
+   - 면접평가 방법과 질문 공통문항이 추가되었습니다.
+5. **다군 수능(일반학생전형)**
+   - 동점자 처리기준이 상세화되어 있으며, 최저합격선에서 동점자가 발생할 경우 그 인원을 모두 합격 처리하고, 모집인원 초과 시 차차년도 모집에서 감축하여 모집합니다.
+이러한 변화들은 전형의 공정성과 정확성을 높이기 위한 조치로 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.893770694732666</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적(일반학생전형)에서는 레저스포츠학과와 태권도학과의 경우 실기가 70%의 비중을 차지합니다.
+이 정보는 다음과 같은 표에서 얻었습니다:
+[표 제목 : 전형요소 반영비율]
+```
+실기/실적 위주 / 가군 실기/실적(일반학생전형) 레저스포츠학과, 태권도학과 / 11 / 일괄 합산 / { 0 /  0 /  0 /  0 /  70 /  30 / } / 수능최저기준 없음 /
+```
+따라서 가군 실기/실적(일반학생전형)에서 레저스포츠학과와 태권도학과의 경우, 실기가 총점의 70%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.820055365562439</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공을 포함하고 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학 
+3. 라이프생활문화학
+이 학부는 미래융합대학에 속해 있으며, 다양한 삶의 분야와 융합된 새로운 전문성을 배양하는 교육을 제공할 예정입니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.9592907428741455</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행해야 하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과는 가군 실기/실적(일반학생전형) 모집단위에 해당되며, 입학 전형에서 실기고사를 진행해야 합니다.
+추가 정보:
+- 레저스포츠학과의 실기종목은 제자리 멀리뛰기와 Z-런입니다.
+- 태권도학과는 품새, 시범, 겨루기 중 하나를 선택하여 실시합니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.8295965194702148</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "가군 실기/실적(일반학생전형)"은 다음과 같은 학과에서 지원할 수 있습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과만 해당됩니다. 다른 학과에서는 일반적으로 수능 위주 전형을 따릅니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.9390950798988342</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설되는 라이프융합학부는 다음과 같은 전공을 제공합니다:
+1. 스타트업 창업투자학
+2. 뷰티 비즈니스학 
+3. 라이프 생활문화학
+这三个专业都是新设立的，属于跨学科融合领域。</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.7523568868637085</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>6년 과정 또는 12년 과정의 농어촌학생 전형에 지원하려면 특수목적고등학교 출신은 지원 자격이 없습니다. 따라서, 동의대학교 일반학생전형으로는 특수목적고등학교 학생이 지원할 수 있습니다만, 농어촌학생 전형에는 지원할 수 없습니다.
+특수목적고등학교 출신이라면 일반적으로 다음과 같은 방법을 통해 동의대학교에 지원하실 수 있습니다:
+1. **일반학생전형**: 이 경우 특별한 자격 제한 없이 지원 가능합니다.
+2. **평생학습자전형**: 30세 이상인 성인 학습자를 대상으로 합니다.
+3. **성인학습자(정원내)전형**: 30세 이상의 성인 학습자를 대상으로 하며, 특수목적고등학교 출신도 지원 가능합니다.
+4. **성인학습자(정원외)전형**: 30세 이상의 성인 학습자를 대상으로 하며, 특수목적고등학교 출신도 지원 가능합니다.
+따라서, 농어촌학생 전형은 지원할 수 없지만, 위와 같은 다른 일반전형을 통해 동의대학교에 지원하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.6305671334266663</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인하기 위해 표를 분석해보겠습니다.
+표 '다군 수능(일반학생전형) 모집단위 및 모집인원'을 보면, 각 학과별로 정원 내 모집 인원이 나와 있습니다. 가장 높은 정원 내 모집 인원을 가진 학과를 찾아보면:
+1. 인문사회과학대학 / 경찰행정학과 - 40명
+2. 상경대학 / 회계학과 - 60명
+3. 공과대학 / 화학공학과 - 교직 - 공학 - 62명
+이 중에서 가장 많은 정원 내 모집 인원을 가진 학과는 **공과대학의 화학공학과(교직 - 공학)**로, 62명을 모집합니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **공과대학 화학공학과(교직 - 공학)**입니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.9344873428344727</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你是特殊教育高中学生，根据提供的信息，你符合东义大学农林地区学生选拔条件。具体来说：
+1. **支持资格**：
+   - 农村（乡、镇）地区的中等和高中学校完成整个教育过程。
+   - 在中学学习期间，本人及其父母双方（如果父母一方去世或离婚，则不包括已故的一方）都居住在农村地区。
+2. **提交文件**：
+   - 申请者本人的亲属关系证明书1份
+   - 申请者本人、父、母的户籍登记簿各1份（总计3份）
+   - 中学学业报告书1份（由教育机构、公共机关或自助服务机从政府24网站获取）
+   - 高中学业报告书1份（学生部在线提供非目标学校及未同意者）
+因此，如果你满足上述条件并提交了相应的文件，你就可以申请东义大学的学生部教科农林地区学生选拔。建议仔细检查你的居住和教育背景是否符合要求，并准备齐全所需的文件。
+更多详细信息可以参考提供的表格内容或访问东义大学的官方网站获取最新信息。</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.448483407497406</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 정확한 합격자 평균 성적 정보가 제공되지 않았습니다. 하지만, 관련 표에서 다음과 같은 정보를 찾을 수 있습니다:
+- 소프트웨어공학부는 다군 수능(일반학생전형)에 해당합니다.
+- 이 모집단위의 전형요소 반영비율은 수능 100%입니다.
+다음은 관련 표에서 얻은 정보입니다:
+- 다군 수능(일반학생전형) - 소프트웨어공학부: {317.87 / 7.35}
+이 숫자는 "국어 + 수학 + 영어 + 탐구"의 표준 변환 점수 합 평균을 나타냅니다.
+따라서, 2024학년도 소프트웨어공학부의 합격자 평균 성적은 {317.87 / 7.35}로 추정할 수 있습니다. 이는 표준 변환 점수이며, 실제 점수와는 다를 수 있습니다.
+더 정확한 정보를 얻으시려면 동의대학교 입학처 웹사이트나 관련 공지사항을 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.7208818197250366</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>317.87점이 최초합격자의 수능 4개 영역 표준 변환 점수 합의 평균입니다.
+표에서 "소프트웨어공학부"에 해당하는 정보는 다음과 같습니다:
+- 모집단위: 소프트웨어공학부(컴퓨터소프트웨어공학 - 공학, 응용소프트웨어공학)
+- 수능 4개 영역 표준 변환 점수 합 { 평균 / 표준 편차 }: { 317.87 / 7.35 }
+따라서 최초합격자들의 평균 성적은 317.87점입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.5918596386909485</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시모집 합격자 발표 일정은 다음과 같습니다:
+1. 최초합격자 발표:
+   - 날짜: 2024년 2월 2일 (금) 오후 2시
+2. 충원 합격자 발표:
+   - 1차: 2024년 2월 14일 (수)
+   - 2차: 2024년 2월 15일 (목)
+3. 3차 이후 충원 합격자 발표:
+   - 날짜: 2024년 2월 15일 (목) 오후 7시부터 2024년 2월 20일 (화) 오후 6시까지
+   - 이 기간 동안 전화 연락 두절(3회 통화)으로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 것으로 간주됩니다.
+모든 지원자는 합격 여부를 확인하기 위해 이 일정에 맞춰 홈페이지에서 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.9173446893692017</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2024년 나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)의 면접평가 일정은 다음과 같습니다:
+- **면접일**: 2024년 1월 16일 (화)
+- **대기실 및 입실 시간 안내**: 2024년 1월 12일 (금) 14:00 이후, 입학안내 홈페이지에서 확인 가능합니다.
+참고로, 이 일정은 예정일이며 실제 일정이 변경될 수 있으므로 공식 발표가 있을 때까지 주의 깊게 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.7714605927467346</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 한의예과의 최저학력 기준은 다음과 같습니다:
+- **수학**:
+  - 미적분 또는 기하 과목을 응시한 경우: 수학 취득 표준점수의 10% 가산
+  - 확률과 통계 과목을 응시한 경우: 일반적으로 수능 최저기준 없음
+- **기타**:
+  - 다른 과목들 (국어, 영어 등)에 대한 기준은 일반적으로 수능 최저기준이 없습니다.
+따라서 주요特点是：
+对于韩国东义大学的针灸学专业（韩医预科），2024年的最低学历标准如下：
+- **数学**：
+  - 如果参加了微积分或几何科目：将获得的数学成绩标准分加10%。
+  - 如果参加了概率与统计科目：通常没有能力要求。
+- **其他科目**：
+  - 其他科目（如国语、英语等）通常也没有最低分数要求。</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.4990537762641907</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024학년도 동일한 정보를 바탕으로, 정시모집에서 각 학과별로 수능 최저학력 기준이 적용되는 경우가 있습니다. 하지만 표에 명시된 내용을 보면, 모든 모집단위에서 수능최저기준이 없음을 확인할 수 있습니다.
+특히 "수능 위주 / 가군 수능(일반학생전형) 전 모집단위(레저스포츠학과, 태권도학과 제외)" 등에서는 "수능최저기준 없음"이라고 명시되어 있습니다. 이는 해당 학과에서 정시모집 시 수능 최저학력 기준이 없다는 것을 의미합니다.
+따라서, 2024학년도 동일한 정보를 바탕으로 답변드리면, 표에 나온 모집단위에서는 수능최저학력기준이 없습니다. 하지만 모든 학과에서 수능 최저학력 기준을 적용하는 것은 아니므로, 특정 학과의 경우 추가적인 확인이 필요할 수 있습니다.
+더 자세한 정보는 동일한 링크인 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하시거나 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.6231609582901001</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024년 2월 14일(수)부터 2024년 2월 20일(화)까지 충원합격자를 발표합니다. 구체적으로:
+- 2차 충원합격자 발표는 2024년 2월 14일(수) 09:00에 이루어집니다.
+- 2차 충원합격자 등록은 2024년 2월 14일(수) 09:00~16:00까지 가능합니다.
+- 3차 충원합격자 발표는 2024년 2월 15일(목) 09:00에 이루어집니다.
+- 3차 충원합격자 등록은 2024년 2월 15일(목) 09:00~16:00까지 가능합니다.
+또한, 3차 이후의 충원합격자는 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 개별 전화 통보를 통해 발표됩니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.9563640952110291</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>附加合格者的通知将在2024年2月14日（星期三）上午9:00发布。
+具体来说，根据提供的信息：
+- 第一次附加合格者通知：2024年2月14日（星期三）上午9:00
+- 第二次附加合格者通知：2024年2月15日（星期四）上午9:00
+所以附加合格者的第一次公布是在2024年2月14日上午9点。</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.6740795373916626</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2024학년도 수시모집에서 다군 수능(일반학생전형)은 정시 일반학생전형 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 합격자를 선발한다고 명시되어 있습니다.
+따라서, 다군 수능(일반학생전형)에서는 추가모집의 가능성이 있습니다.</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.9708878993988037</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 나군 학생부종합 전형의 하나로, 주요 특징과 관련 정보는 다음과 같습니다:
+1. 모집단위 및 인원:
+   - 미래융합대학 / 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학): 11명
+   - 미래융합대학 / 부동산자산경영학부: 
+     - 성인학습자(정원외)전형: 23명
+     - 성인학습자(정원내)전형: 7명
+     - 재직자전형: 7명
+2. 지원자격:
+   - 산업체 적용 범위: 국가·지방자치단체 및 공공단체, 근로기준법 제11조에 의거 상시근로자 5인 이상 사업체, 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+   - 재직기간: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상
+3. 평가 영역 및 배점:
+   - 학업역량: 최고 180점, 최저 126점
+   - 전공적합성: 최고 120점, 최저 84점
+4. 동점자 처리기준:
+   - 면접고사 성적이 상위자 우선
+   - 서류평가 공동체역량 영역 성적이 상위자 우선
+   - 서류평가 전공적합성 영역 성적이 상위자 우선
+   - 교과 성적이 상위자 우선
+5. 추가 정보:
+   - 면접고사는 학교생활을 열심히 하고, 선행학습과 사교육의 의존없이 준비할 수 있는 학생 개인의 입장과 경험을 평가 대상으로 합니다.
+   - 부정적 사례로는 제출서류의 허위사실이 포함됩니다.
+이 전형은 평생학습자 및 성인학습자를 위한 특별한 기회를 제공하며, 실제 경력을 바탕으로 학업역량과 전공 적합성을 종합적으로 평가합니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.9209237694740295</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>6년 과정 또는 12년 과정 중 하나만 해당해야 합니다.
+- **6년 과정**: 농어촌(읍·면)지역에 소재하는 중·고등학교에서 전 교육과정을 이수하고, 중·고등학교 재학기간 중 본인 및 부모 모두가 농어촌(읍·면) 지역에 거주한 자입니다.
+- **12년 과정**: 지원자 본인이 초·중·고등학교 전 교육과정을 농어촌(읍·면) 지역 소재 학교에서 이수하고 거주한 자입니다.
+추가로, 지원자격 확인 시 다음과 같은 사항이 주의해야 합니다:
+- 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.
+- 행정구역은 초·중·고등학교 재학 당시의 행정구역 단위를 적용하며, 학업 중단 후 재입학한 경우에도 거주기간은 연속되어야 합니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.6451151967048645</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사를 제출하는 장소는 다음과 같습니다:
+(우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+제출 시기는 2024년 1월 3일(수)부터 1월 12일(금)까지 도착분에 한해 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.7806791067123413</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 준비해야 합니다:
+1. 준비물:
+   - 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - 메디신볼 (규격: 남자 3kg, 여자 2kg)
+   - 운동복 및 운동화
+2. 실기종목:
+   - 제자리 멀리뛰기 (240점, 24%)
+   - 메디신볼 던지기 (243점, 23%)
+   - Z-런 (230점, 23%)
+3. 주의사항:
+   - 스파이크나 축구화 등 특수화는 사용할 수 없습니다.
+   - 신발바닥에 이물질이 가착되지 않도록 합니다.
+4. 기록별 배점표: 
+   각 실기종목별로 기록별 배점을 확인해야 합니다 (상세 내용은 제공된 표를 참조하세요).
+5. 시험장소:
+   - 정확한 시험장소는 공지나 입학안내 홈페이지에서 확인해야 합니다.
+6. 기타:
+   - 부상이나 기타 사유로 인해 실기고사를 기권하는 경우, 해당 종목에 최저점수를 받게 됩니다.
+   - 각 실기종목별 2회 반칙 시 최저점수를 받게 됩니다.
+따라서 체육학과의 실기고사는 위와 같이 준비하고, 정해진 장소에서 실시됩니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.4814199805259705</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2차 충원합격자 발표 이후(3차 이후)에 전화 연락 두절로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주됩니다. 따라서 3차 이후 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화))에 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.
+즉, 일반적으로 합격자 발표 후에는 별도의 개인 연락이 주어지지는 않지만, 3차 이후 충원합격자 발표 기간 동안에는 전화 통신이 원활하게 이루어져야 합니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.7951424717903137</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到2023年警察行政学专业的具体情况。根据给出的信息，我们可以了解到关于该专业的一些基本要求和考试内容，但没有具体的录取结果或统计数据。
+要获取2023年的具体录取结果，通常需要查看学校的官方公告、招生简章或者联系学校招生办公室以获得最准确的信息。这些信息一般会在学校的官方网站上发布，包括但不限于：
+- 学校的招生网站
+- 招生简章或招生手册
+- 官方新闻稿或公告
+如果您需要了解2023年警察行政学专业的具体录取结果，请访问东国大学官网或其他官方渠道获取最新信息。</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.5025778412818909</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024년 동일한 전형에서 수능을 응시하지 않고도 지원 가능한 전형이 있습니다. 예를 들어, 실기/실적 위주로 평가되는 전형과 학생부 종합 평가 전형 등이 해당됩니다.
+1. **실기/실적 위주 전형**:
+   - **가군 실기/실적(일반학생전형)**: 레저스포츠학과, 태권도학과를 제외한 모든 학과에서 수능을 응시하지 않아도 지원 가능합니다.
+   - **다군 실기/실적(일반학생전형)**: 경기지도학과에서 수능을 응시하지 않아도 지원 가능합니다.
+2. **학생부 종합 평가 전형**:
+   - **나군 학생부교과(농어촌학생전형)**, **나군 학생부교과(평생학습자전형)**, **나군 학생부종합(성인학습자(정원내)전형)**, **나군 학생부종합(성인학습자(정원외)전형)**, **나군 학생부종합(재직자전형)** 등이 수능을 응시하지 않아도 지원 가능합니다.
+따라서, 특정 전형에서는 수능을 응시하지 않고도 지원할 수 있습니다. 하지만 지원하려는 전형의 세부 조건과 요구 사항을 꼭 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.6953179240226746</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서는 일반적으로 고등학교 졸업 후 10년 이상 경과한 경우 지원이 불가능합니다. 대다수의 대학은 최소 3년 이내의 교육경험을 요구하며, 일부 특별전형을 제외하고는 10년 이상 경과한 경우에는 지원 자격이 없습니다.
+하지만 특정 전형에 따라 예외적으로 지원할 수 있는 경우가 있으므로, 다음과 같은 절차를 따르시기 바랍니다:
+1. 동의대학교 입학 홈페이지를 확인해 보세요.
+2. 정시모집요강을 꼼꼼히 읽어보세요.
+3. 특별전형(평생학습자전형, 성인학습자전형 등)에 지원 가능성을 확인하세요.
+특정 전형의 경우 고등학교 졸업 후 10년 이상 경과한 자도 지원할 수 있는 경우가 있으므로, 해당 대학의 정시모집요강을 체크하시고, 필요하다면 입학처와 연락하여 상세히 문의해 보세요.
+추가적으로, 동의대학교 입학 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 방문하여 최신 정보를 확인하는 것이 가장 정확한 답변을 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.7217069864273071</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시모집의 주요 일정은 다음과 같습니다:
+1. **원서접수 마감**: 2024년 1월 6일(토) 18시까지 원서접수 사이트 접속이 차단됩니다.
+2. **전형료 결제**: 전형료를 결제해야 합니다. 전형료 결제가 완료된 후에 수험번호가 부여되며, 이후 원서접수 취소 및 내용 변경이 불가능합니다.
+3. **수험번호 부여**: 전형료 결제가 완료되면 수험번호가 부여됩니다.
+4. **서류 제출 대상자**: 서류를 제출해야 하는 경우, 우편발송용 표지를 출력하여 봉투에 부착 후 제출서류를 송부해야 합니다.
+5. **합격자 발표 및 등록금 납부**:
+   - 최초합격자부터 2차 충원합격자 발표는 홈페이지를 통해 실시됩니다.
+   - 모든 지원자는 합격 여부를 반드시 확인해야 합니다.
+   - 최초합격자 및 충원합격자는 개인 연락을 받지 않으며, 합격 여부 미확인으로 인해 등록하지 못한 경우 등록포기로 간주됩니다.
+   - 3차 이후 충원합격자 발표 과정에서 전화연락 두절로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주됩니다.
+   - 합격자는 지정된 등록기간 내에 등록금을 납부해야 합니다. 지정 기일 내에 등록금을 납부하지 않은 경우, 우리대학 입학을 포기하는 것으로 간주됩니다.
+6. **등록포기 및 환불**: 2024년 2월 14일(수)부터 2024년 2월 20일(화)까지 등록포기를 신청할 수 있으며, 이 기간 이후에는 번복이 불가능합니다.
+7. **개인정보 제공 동의**: 개인정보 수집 및 이용에 대한 동의를 해야 합니다.
+위 일정은 일반적인 일정이며, 실제 일정은 대학 입학관리위원회의 결정에 따라 변경될 수 있으므로 공식 홈페이지에서 최신 정보를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.8922315239906311</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집일정은 다음과 같습니다:
+1. 원서접수 마감: 2024년 1월 6일(토) 18시
+- 이 시간까지 원서 접수 사이트에 접속하여 지원 내용 입력 및 전형료 결제를 완료해야 합니다.
+2. 전형료 결제:
+- 원서접수 시 전형료를 결제해야 합니다.
+- 결제가 완료된 후 수험번호가 부여됩니다.
+3. 서류 제출:
+- 서류 제출 대상자는 우편발송용 표지를 출력하여 봉투에 부착하고 제출서류를 송부해야 합니다.
+4. 면접 및 서류평가 일정:
+- 정확한 날짜는 모집요강에 명시되어 있으나, 일반적으로 1월 중순부터 시작됩니다.
+- 면접은 개별면접 방식으로 진행되며, 시간당 10분 이내로 제한됩니다.
+5. 최초합격자 발표:
+- 2024년 2월 중순경에 홈페이지를 통해 최초합격자를 발표합니다.
+6. 충원 합격자 발표:
+- 최초합격자 발표 후, 충원 합격자를 추가로 발표합니다.
+- 충원 합격자는 2차, 3차 등으로 나뉩니다.
+7. 합격자 등록:
+- 합격자는 지정된 기간 내에 등록금을 납부해야 합니다.
+- 지정 기일 내에 등록하지 않으면 입학을 포기하게 됩니다.
+8. 등록금 환불 신청:
+- 2024년 2월 14일(수) ~ 20일(화)까지 온라인으로 등록금 환불 신청이 가능합니다.
+- 타 대학에 충원합격 통보를 받은 경우 즉시 우리대학에 등록 포기 의사를 전달해야 합니다.
+위 일정은 일반적인 예시이며, 정확한 날짜와 절차는 동의대학교 입학관리 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.8794200420379639</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시모집에서 수능을 미응시한 학생도 지원할 수 있는 전형은 다음과 같습니다:
+1. **디자인조형학과, 체육학과, 경기지도학과** - 가군 실기/실적(일반학생전형)
+2. **한의예과 (수학 미적분 또는 기하 응시자)** - 나군 수능(일반학생전형)
+이 외에는 대부분의 전형에서 수능 점수가 반영되므로, 수능을 미응시한 학생은 위와 같은 전형에만 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.6088701486587524</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024학년도 모집요강에서 전자공학과의 경우, 충원 합격은 3차까지 이루어졌습니다. 
+특히, 표에서 다음과 같은 정보를 확인할 수 있습니다:
+ICT융합공과대학 / 전기공학과 - 교직 / 80 / { 34 / } / { 0 /  0 /  추가내용 참조 /  0 /  0 /  0 /  0 /  0 / } / { 0 / }
+ICT융합공과대학 / 전자공학과 - 교직 / 60 / { 34 / } / { 0 /  0 /  추가내용 참조 /  0 /  0 /  0 /  0 /  0 / } / { 0 / }
+전자공학과는 최초합격자와 충원 합격자를 포함하여 총 34명이 합격했으며, 이 중 일부는 1차, 2차, 그리고 3차 충원에서 합격했습니다. 
+따라서 전년도에 전자공학과의 충원 합격은 최소 3차까지 이루어졌습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.6287174820899963</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到东义大学入学处的电话号码。根据您提供的内容，如果需要联系入学相关事宜，可以参考以下建议：
+1. 查看页面底部或右侧是否有联系方式列表。
+2. 访问学校官网（https://ipsi.deu.ac.kr/main.do），通常官方网站会有详细的联系方式和咨询方式。
+3. 联系 (주)유웨이어플라이 : 1588-8988, 这个电话号码在支持互联网报名相关问题时可能会提供帮助。
+如果您需要入学处的具体联系电话，建议直接访问东义大学的官方网站获取最新信息。如果官网中仍然没有找到相关信息，可以尝试拨打 (주)유웨이어플라이提供的电话进行咨询。</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.5366240739822388</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후의 충원합격자에게 개별 전화통보를 실시할 때, 전화 통화가 되지 않는 경우 다음과 같은 절차로 처리됩니다:
+1. **재전화 시도**: 초기에 실패한 전화 통화는 최대 2-3회 재전화 시도를 합니다.
+2. **SMS 또는 문자메시지 발송**: 전화 통화가 불가능한 경우, 합격자에게 SMS 또는 문자메시지를 통해 합격 정보를 전달합니다.
+3. **입학관리팀 연락처 제공**: 합격자에게 입학관리팀의 연락처(전화번호 및 이메일)를 제공하여 직접 문의할 수 있도록 합니다.
+4. **웹사이트 확인 안내**: 합격자에게 입학 홈페이지에서 개별 조회 가능하도록 안내합니다.
+5. **고지서 발송**: 필요시, 합격 고지서를 우편으로 발송하거나, 학교 입학관리팀에서 직접 수령할 수 있도록 안내합니다.
+이러한 절차를 통해 합격자에게 최대한 많은 정보를 전달하고, 불가피하게 통화가 되지 않을 경우에도 다른 방법을 통해 합격 사실을 확인할 수 있도록 지원합니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.647649884223938</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정의 농어촌학생전형 지원을 위한 제출서류는 다음과 같습니다:
+### 6년 과정 (농어촌(읍·면)지역 소재 중·고등학교에서 전 교육과정을 이수한 자로서 중·고등학교 재학기간 중 본인 및 부모 모두가 농어촌(읍·면) 지역에 거주한 자)
+1. 지원자 본인의 가족관계증명서 1부
+2. 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+3. 중학교 학교생활기록부 1부 
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자) 
+### 12년 과정 (부모의 거주지와는 상관없이 지원자 본인이 초·중·고등학교 전 과정을 농어촌(읍·면) 지역 소재 학교에서 이수하고 거주한 자)
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부 
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+**추가 주의사항:**
+- 제출기간은 2024년 1월 3일(수)부터 1월 12일(금)까지 도착분에 한함.
+- 제출장소는 (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀.
+- 주민등록초본은 주소변동사항이 포함된 서류를 발급받아 제출해야 함.
+- 최종등록자 중 고교 졸업예정자는 졸업 이후에 발급한 졸업증명서(아포스티유 확인서 또는 영사확인)를 2024년 2월 16일(금)까지 추가 제출해야 함.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.9264780282974243</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 제출해야하는 서류는 다음과 같습니다:
+- 지원자 본인의 주민등록초본 1부 
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+주요 내용은 다음과 같습니다:
+1. 지원자의 주민등록초본을 제출해야 합니다.
+2. 초·중·고등학교 전 과정에서 농어촌 지역 소재 학교를 이수한 증빙서류를 제출합니다.
+3. 고등학교 학생부는 온라인으로 제공하는 경우 제출하지 않아도 되지만, 비대상 교육기관이나 동의가 없는 경우에는 학생부 원본을 제출해야 합니다.
+4. 모든 학교생활기록부는 1부씩 제출합니다.
+이러한 서류들을 지정된 기간 내에 제출해야 하며, 제출 여부는 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.9607629776000977</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有明确提到是否在2024年实施的定期招生（정시 모집）中包含低收入机会均等类型的招生计划。因此，根据现有信息无法确定是否会进行此类招生。
+如果您需要了解具体的招生计划内容，建议直接访问东国大学官方网站 (http://ipsi.deu.ac.kr) 或者联系学校的招生办公室以获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.5062755346298218</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 등급 평균을 산출할 때 소수점 셋째자리에서 절사한다는 내용이 포함되어 있습니다. 따라서 사탐 2과목의 평균산출에서 2.5등급이 나왔다면, 이는 소수점 셋째자리에서 절사되기 때문에 3등급으로 반영됩니다.
+따라서 수능 사탐 2과목의 등급 평균을 산출할 때:
+1. 2개 과목의 등급을 더한 후 2로 나눕니다.
+2. 소수점 셋째자리에서 절사합니다.
+예를 들어, 두 과목의 등급이 각각 2등급과 3등급이라면:
+(2 + 3) / 2 = 2.5
+그러나 이 경우 소수점 셋째자리에서 절사되어 3등급으로 반영됩니다.
+따라서 2.5등급은 3등급으로 반영될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.6116107702255249</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자는 최초합격자 이후로 3차까지 발표가 있습니다.
+발표 일정은 다음과 같습니다:
+1. 최초 합격자 발표 및 등록 / 2024. 02. 02.(금) 14:00
+2. 충원 합격자 1차 (인터넷) 발표 / 2024. 02. 14.(수) 09:00 
+3. 충원 합격자 1차 (인터넷) 등록 / 2024. 02. 14.(수) 09:00~16:00
+4. 충원 합격자 2차 (인터넷) 발표 / 2024. 02. 15.(목) 09:00
+5. 충원 합격자 2차 (인터넷) 등록 / 2024. 02. 15.(목) 09:00~16:00
+6. 충원 합격자 3차 이후 (개별 전화 통보) 발표 / 2024. 02. 15.(목) 19:00~ 2024. 02. 20.(화) 18시까지
+따라서 최초 합격자 이후로는 총 3차의 충원 합격자가 발표됩니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.8826295733451843</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看e비즈니스학과(e-Business)的录取标准和名额情况。根据提供的表格信息：
+1. e비즈니스학과在2024学年的招生计划中，总共有33个名额。
+2. 支持该专业的学生需要参加一般学生类型（가군）的高考，并且其国语、数学和两门选修科目的标准转换分数之和以及英语等级得分均需达到一定水平。
+根据给定的数据，e비즈니스学专业的录取分数线为：
+- 国语 + 数学 + 两个选修科目 (含加分) 的标准转换分数总和：326.89
+- 英语等级：2
+假设一个学生在高考中的成绩如下：
+- 国语：104（标准分）
+- 数学：108（标准分）
+- 英语：4等（等级）
+我们可以计算一下这个学生的总分是否达到录取线：
+1. 选择两门选修科目，这里假设为两个最高级别的科目。
+2. 假设英语等级得分为2。
+那么：
+- 国语 + 数学 + 两个选修科目的标准转换分数之和：326.89
+- 英语等级得分：2
+如果这个学生的总分达到了上述要求，且没有其他不符合条件的情况（如未达到最低英语等级），则有可能被录取。
+但是具体到4.6的分数线是否足够，我们需要知道具体的选修科目标准转换分数和英语等级的具体要求。从给定的数据来看，e비즈니스学专业的国语、数学和两门选修科目的总分要求是326.89，而英语等级要求至少为2。
+如果4.6的分数线是指上述总分中的某个具体科目或部分分数，则需要进一步确认。通常情况下，高考成绩达到300多分（标准转换分数）加上适当的加分和满足英语等级要求，应该可以考虑被录取。
+建议查看具体的招生简章或者联系学校获取更详细的信息以确认是否能够被e비즈니스学专业录取。</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.5963845252990723</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. eBiznesis学专业的录取标准。
+2. 你的成绩（尤其是科目成绩）是否符合这些标准。
+3. 当前的招生计划和竞争情况。
+根据提供的信息：
+- eBiznesis学专业属于“상경대학 / 인문사회”类别，适用的是“가군 수능(일반학생전형)”录取方式。
+- 该专业的录取标准是：国语（25%）、数学（25%）、英语（25%）和探究科目（25%）的总分。
+你的成绩为：
+- 국어 (Korean) - 104
+- 수학 (Mathematics) - 108
+- 영어 (English) - 4등급
+根据给定的等第分数表，英语4等价于99分。
+假设探究科目的平均分为60（这是一个合理的估计值），那么你的总分为：
+(104 + 108 + 99 + 60) / 4 = 371 / 4 = 92.75
+这个分数在所有申请者中会处于什么位置取决于其他考生的成绩分布。但是，仅凭你提供的信息来看：
+- 你的国语和数学成绩相对较高。
+- 英语虽然不是最高等第，但也不是最低的。
+- 探究科目的平均分也还算不错。
+因此，在没有更多具体数据的情况下，理论上你是有可能被eBiznesis学专业录取的。但是实际录取情况会受到其他考生的成绩影响，所以不能完全确定你会被录取。
+建议：
+1. 关注学校发布的最新招生信息和成绩分布。
+2. 如果可能的话，了解其他申请者的平均成绩水平。
+3. 准备好所有必要的申请材料以确保顺利通过审核。</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.6252579689025879</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>为了评估您是否有资格成为e비즈니스학전공的预录取生，我们需要考虑以下几个因素：
+1. **综合评价分数**：根据表格中的评分标准，e비즈니스学专业的综合评价分为600分。您的总分为38分，显然远低于及格线。
+2. **各部分得分情况**：
+   - 学业能力（学業역량）：120分
+   - 社会参与度与团队合作能力（공동체역량）：120分
+   - 专业匹配性（전공적합성）：360分
+3. **及格线**：
+   - 第一名：600分
+   - 第二名：540分
+   - 第三名：480分
+   - 第四名：420分
+   - 第五名：360分
+根据上述信息，您的总分为38分远远低于及格线。因此，按照目前的分数来看，您不太可能成为预录取生。
+建议：
+- 仔细检查提交的所有文件和材料是否准确无误。
+- 如果有可能，请咨询学校招生办公室获取更多详细信息或进行进一步评估。
+- 考虑重新准备并参加下一轮申请或其他专业。</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.4522337317466736</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44이라는 국어 수능 점수는 상당히 낮은 점수입니다. 동의대학교 간호학과의 모집요강을 보면, 해당 학과는 수능 성적을 매우 중요하게 평가합니다.
+간호학과의 경우, 수능 최저합격선이 높은 편이며, 특히 국어와 수학 영역에서 높은 점수를 요구하는 경향이 있습니다. 예를 들어, 간호학과의 모집요강을 보면 수능 국어와 수학의 표준점수가 매우 중요하게 평가됩니다.
+3.44라는 점수로는 동의대학교 간호학과에 합격하기 어려울 가능성이 높습니다. 최저합격선은 대략 300점 이상이어야 하며, 국어와 수학에서 더 높은 점수를 요구합니다.
+하지만 정확한 합격 가능성 판단을 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **최종 합격자 발표**: 최종 합격자 발표 결과를 확인해야 합니다.
+2. **경쟁률**: 해당 모집단위의 경쟁률을 확인하여 자신의 점수가 얼마나 높은지 판단합니다.
+3. **개인별 성적 분포**: 동일한 수능 점수대에서 다른 지원자의 성적이 어떻게 분포되어 있는지를 확인해야 합니다.
+따라서, 현재 정보만으로는 3.44라는 점수로는 합격하기 어렵다고 판단할 수 있습니다. 하지만 최종 결과를 확인하는 것이 가장 정확한 판단을 내리는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.7638314962387085</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 모집인원과 지원자 수, 그리고 평균 점수를 확인해보겠습니다.
+간호학과의 모집 인원은 22명이며, 최종 등록자의 경우 다음과 같은 성적을 보였습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 357.63
+- 영어 등급: 평균 1.86
+당신의 성적은 2.52로, 이는 동의대학교 간호학과 최종 등록자의 평균 영어 등급(1.86)보다 높습니다.
+그러나 합격 가능성은 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. **성적 경쟁**: 국어 + 수학 + 탐구의 표준 변환 점수 합이 중요합니다. 당신의 2.52는 평균 357.63보다 낮습니다.
+2. **전형 방식**: 간호학과는 종종 면접이나 추가 서류 검토를 포함한 복잡한 전형 과정을 거칩니다.
+3. **개인 특성 및 경험**: 학교생활기록부, 추천서 등 개인적인 요소도 고려될 수 있습니다.
+4. **동점자 처리 기준**: 동점자가 발생할 경우, 면접 성적, 서류 평가 등이 추가로 고려됩니다.
+따라서, 2.52의 영어 점수만으로는 확실한 합격을 보장받기는 어렵습니다. 그러나 당신의 다른 성적이 좋은 경우에는 합격 가능성은 여전히 있습니다. 
+추천 사항:
+- 면접 준비를 철저히 하세요.
+- 추천서와 자기소개서 등을 잘 작성해보세요.
+- 추가 서류나 면접 질문에 대한 답변을 미리 준비하세요.
+결론적으로, 2.52의 성적만으로는 확실한 합격은 어렵지만, 다른 요인들이 좋은 경우에도 합격 가능성은 있습니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.7757071852684021</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 성적을 가지고 간호학과에 정시로 합격하기는 어렵다고 볼 수 있습니다. 이유는 다음과 같습니다:
+1. 간호학과는 일반적으로 높은 경쟁률을 보입니다.
+2. 간호학과는 고득점이 요구되는 곳으로, 3.7이라는 점수는 평균 이상의 성적일지라도 상위권 합격에는 부족할 수 있습니다.
+3. 간호학과는 종종 수능 최저 기준을 높게 설정하기도 합니다.
+4. 경쟁률이 매우 높아서, 3.7이라는 점수로는 충분한 경쟁력을 갖추기 어렵습니다.
+그러나 다음과 같은 방법들을 통해 합격 가능성은 높일 수 있습니다:
+1. 면접 준비: 간호학과에서는 면접 비중이 높을 수 있으므로 면접 준비를 철저히 해야 합니다.
+2. 서류 준비: 지원동기, 진로계획 등 서류에서 강점을 내보는 것이 중요합니다.
+3. 추가 자격증 취득: 간호사 자격증 등을 취득하여 경쟁력을 높일 수 있습니다.
+4. 학교생활기록부의 긍정적인 내용을 강조: 학생부에서 긍정적인 활동이나 성과를 잘 보여줄 수 있습니다.
+5. 추가 지원: 다른 전형(예: 특성화고 지원 등)으로도 지원해 볼 수 있습니다.
+결론적으로 3.7의 점수로는 간호학과에 정시로 합격하기 어렵지만, 철저한 준비와 노력으로 가능성을 높일 수는 있습니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.7142645120620728</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균은 357.63이고, 표준 편차는 5.37입니다.
+당신의 성적인 2.58을 보면, 이는 평균보다 상당히 낮습니다 (평균이 357.63인데 당신의 점수는 2.58). 
+하지만 합격 가능성은 다음과 같은 요소들에 따라 달라질 수 있습니다:
+1. 경쟁률: 간호학과는 모집인원이 많지 않지만 지원자가 많을 경우 높은 경쟁률을 보일 수 있습니다.
+2. 동점자 처리 기준: 동점자 중에서 국어, 수학, 영어 등급 순으로 처리되므로 다른 과목 성적도 중요합니다.
+3. 모집인원과 지원 인원의 비율: 만약 모집인원이 많다면 경쟁률이 높아질 수 있습니다.
+따라서 2.58이라는 점수로는 합격하기 어려울 것으로 보입니다. 하지만 최종 결정은 입학처에서 성적, 면접 등 다양한 요소를 종합적으로 평가하여 내릴 것입니다. 
+추천되는 조치:
+1. 다른 전형(예: 특기자전형, 실기/실적 위주 전형 등)을 고려해보세요.
+2. 추가 학습이나 준비를 통해 성적을 향상시키는 것이 좋습니다.
+3. 입학처에 직접 문의하여 상세한 정보를 얻으시는 것도 도움이 될 수 있습니다.
+더 자세한 조언은 동의대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하거나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.7608579397201538</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>为了回答您的问题，我需要查看一些具体的信息。根据您提供的数据表，游戏学（게임공학）专业的录取情况如下：
+- 招生人数：3
+- 报名人数：16
+- 竞争比：5.33
+从这些信息来看，竞争非常激烈。您的预估分数为 424.05。
+为了判断您是否有希望被录取，我们需要考虑以下几个因素：
+1. **最终录取分数线**：通常情况下，学校会根据报名情况和成绩分布来确定最终的录取分数线。
+2. **您的预估分数**：您的预估分数是 424.05，在所有考生中排名第7位。
+虽然竞争比为5.33，意味着每3个名额有16个人竞争，但您在第7名的位置上，仍然有一定的机会。具体能否录取还需要看学校的最终决定和实际的录取分数线。
+建议：
+- 关注学校官网发布的最新信息。
+- 如果可能的话，咨询招生办公室获取更准确的信息。
+- 准备好其他申请材料以应对可能的补录情况。
+希望这些信息对您有所帮助！</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.4175246059894562</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 게임공학과의 모집인원과 경쟁률을 고려해보겠습니다.
+1. **모집인원**: 게임공학과는 3명입니다.
+2. **경쟁률**: 5 / 16 (5명이 지원했으나 3명만 선발)
+이렇게 계산하면:
+- 총 지원자 수: 16명
+- 모집인원: 3명
+따라서, 경쟁률은 약 5.33입니다.
+당신의 수능 성적(4.16)을 가지고 정확한 위치를 파악하기는 어렵지만, 이전년도의 입학성적과 비교해볼 수 있습니다. 예를 들어, 지난해 게임공학과의 최저합격선이 4.20정도였다면, 당신의 성적은 약간 낮습니다.
+**추가 합격 가능성**: 
+- **1차 충원**: 현재 모집인원 3명 중 3명이 선발되면 추가로 지원자가 필요할 수 있습니다.
+- **2차 충원**: 만약 1차 충원에서 3명 모두 합격한다면, 2차 충원을 통해 추가 합격 가능성이 있습니다.
+따라서, 최대 2번의 추가 합격 기회가 있을 수 있습니다. 하지만 이는 실제 입학성적과 지원자들의 성적이 어떻게 분포되는지에 따라 달라질 수 있으므로, 정확한 예측은 어렵습니다.
+**추천**: 
+- **수능 최저합격선 확인**: 최근 몇 년간의 입학성적을 참조하여 현재의 성적이 어느 위치인지 파악하세요.
+- **면접 준비**: 게임공학과는 면접이 포함되어 있으므로, 면접 준비도 중요합니다.
+- **추가 지원**: 다른 전형이나 대학에 추가로 지원하는 것도 고려해보세요.
+최종적으로는 입학성적 발표와 지원자의 성적이 어떻게 분포되는지에 따라 달라질 수 있으니, 최신 정보를 확인하시고 결정하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.7505463361740112</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体的数据。根据提供的表格信息，“경영정보학과”的“국어 + 수학 + 탐구(2개)”（含加权分）的平均标准转换分数和标准差等数据。
+从给定的数据中可以看到：
+- 경영정보학과 的国语+数学+探究（2个）（含加分）的标准变换分数总和的平均值为431.33。
+- 标准差为9.86。
+假设您提供的“3.75”是指标准转换分数总和，我们可以大致判断一下：
+\[ 431.33 - 9.86 \approx 421.47 \]
+\[ 431.33 + 9.86 \approx 441.19 \]
+因此，如果您的标准转换分数总和在大约421.47到441.19之间，那么有可能成为初审合格者。
+但是，为了更准确地判断，我们需要知道具体的“国语 + 数学 + 探究（2个）”的标准变换分数以及英语等级的具体数值。如果您的成绩在这个范围内，并且满足其他条件（如英语等级等），则有可能成为初审合格者。
+建议您查看具体的成绩报告和招生简章中的详细要求，以确保符合所有条件。如果有疑问，可以咨询学校招生办公室获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.689429759979248</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体的数据。根据您提供的表格信息，“经营信息学”（경영정보학과）的招生情况如下：
+- 招生人数：33人
+- 报名人数：95人
+- 竞争率：2.88:1
+此外，还需要查看该专业的具体录取标准。根据您提供的数据，“经营信息学”（경영정보학과）的最终注册者的平均成绩如下：
+- 国语 + 数学 + 两个选修科目（含加分）的标准转换分数总和 { 平均 / 标准差 }：326.89 ± 6.92
+- 英语等级 { 平均 / 标准差 }：2.88 ± 0.56
+- 四个科目等级 { 平均 / 标准差 }：4.40 ± 0.18
+- 国语 + 数学 + 英语 + 两个选修科目（含加分）的标准转换分数总和 { 平均 / 标准差 }：450.78 ± 5.90
+根据这些信息，我们可以进行以下分析：
+1. **国语 + 数学 + 两个选修科目（含加分）的标准转换分数总和**：
+   - 最终注册者的平均成绩为326.89。
+   - 您的成绩是4.2，这远远高于最终注册者的平均水平。
+2. **英语等级**：
+   - 最终注册者的平均英语等级为2.88。
+   - 您的英语等级没有给出具体数值，但根据您的描述，如果您的英语等级不低于2.88，那么应该可以满足要求。
+3. **四个科目等级**：
+   - 最终注册者的平均四个科目等级为4.40。
+   - 您的成绩是4.2，略低于最终注册者的平均水平，但仍接近或可能达到录取标准。
+综上所述，您的成绩（国语 + 数学 + 英语 + 两个选修科目的总和为4.2）看起来是可以满足“经营信息学”专业招生要求的。但是，具体能否被录取还需要考虑其他因素，如英语等级等细节情况以及具体的招生政策。
+建议您查看最新的招生简章或直接咨询学校以获取最准确的信息。如果还有疑问，可以访问 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 获取更多信息。</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.5645042657852173</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下几个方面的信息：
+1. 经营信息学部（一般学生）的招生人数和竞争比例。
+2. 您的成绩在该专业的排名情况。
+根据提供的表格数据，经营信息学部（一般学生）的具体信息如下：
+- **招生计划**：9人
+- **报名人数**：95人
+- **竞争比**：10.56
+这意味着您需要在所有报名者中排名第9位才能被录取。您的成绩是432.89，这个分数看起来非常高（因为最高分为450.78），但我们需要确认具体的排名情况。
+根据提供的数据，经营信息学部的国语、数学、英语和探究科目总分标准转换分数平均值为：
+- 国语 + 数学 + 探究 (2个) 标准转换分数 { 平均 / 标准差 }：434.44 / 9.00
+您的成绩是432.89，略低于这个平均分。但是，由于竞争比非常高（10.56），这意味着即使您的成绩接近平均值也可能无法确保录取。
+因此，虽然您的成绩看起来不错，但能否被录取还需要看具体的排名情况和其他考生的成绩分布。建议您查看详细的排名信息或咨询学校以获得更准确的答案。
+综上所述，仅凭提供的信息，我们不能确定您一定能被录取，但您的成绩在该专业中处于较高水平。</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.530835747718811</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학과의 전형요소 반영비율을 확인해보겠습니다.
+바이오응용공학과는 학생부교과, 실기/실적 위주전형으로 분류되며, 전형요소 반영비율은 다음과 같습니다:
+- 학생부교과: 70%
+- 서류(실적): 30%
+성적 부분에 대해 확인해보겠습니다. 수능 성적만을 기준으로 보면:
+- 국어: 3.85
+- 수학: 4.12
+- 영어: 4.92
+수능 4개 영역의 평균 점수가 4.06입니다 (평균 / 표준 편차: 4.06 / 0.35).
+성적 3.33은 수능 성적에서 중간 정도를 나타내는 것으로 보이지만, 바이오응용공학과의 경우 학생부교과가 큰 비중을 차지하기 때문에, 단순히 수능 성적이 낮다고 해서 불리한 것은 아닙니다.
+다만, 최초합격자 발표일에 해당 성적으로 합격할 확률은 높지 않을 것으로 예상됩니다. 왜냐하면:
+1. 바이오응용공학과는 수능성적이 상대적으로 높은 편입니다.
+2. 학생부교과가 큰 비중을 차지하기 때문에, 학생부 성적도 중요합니다.
+최종 결정에는 학생부 교과성적, 면접 등 다양한 요소들이 고려되므로, 단순히 수능 성적만으로 판단하기는 어렵습니다. 
+추천되는 조치:
+1. **학생부 교과성적 확인**: 현재의 학생부 교과성적이 높은지 확인하고, 필요하다면 강화해야 할 과목이 있는지 파악하세요.
+2. **면접 준비**: 면접에서도 좋은 성적을 받기 위해 충분히 준비해보세요.
+최종적으로는 2024학년도 동의대학교 입학전형일정과 최초합격자 발표 결과를 확인하여 결정하시길 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.78435879945755</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>4.4의 수능 등급으로 방사선학과에 지원하기는 어렵다고 볼 수 있습니다. 이유는 다음과 같습니다:
+1. 방사선학과의 모집인원이 적습니다 (5명), 경쟁률이 높을 것으로 예상됩니다.
+2. 해당 학과의 모집요강에서 전형요소 반영비율을 살펴보면, 수능 등급이 큰 비중을 차지합니다.
+3. 방사선학과의 수능 반영방법은 다음과 같습니다:
+   - 국어: 15%
+   - 수학(확률과통계): 20%
+   - 영어: 10%
+   - 탐구(사회탐구/과학탐구 중 선택): 30%
+4. 평균적인 방사선학과 합격자의 수능 등급은 4.8 이상입니다 (표에서 확인 가능).
+5. 4.4의 등급으로는 경쟁력을 갖추기 어렵습니다.
+하지만, 다음과 같은 방법을 통해 기회를 늘릴 수 있습니다:
+1. 다른 전형(학생부종합, 실기/실적 위주 등)도 고려해보세요.
+2. 방사선학과의 특성화고 교육과정 또는 1년 이상 직업교육훈련 과정을 이수한 경우에 해당하는 경력이 있다면 이를 활용해보세요.
+3. 면접이나 서류평가에서 좋은 평가를 받는다면 기회가 될 수 있습니다.
+결론적으로, 현재의 성적만으로 방사선학과에 지원하기는 어렵지만, 다양한 전형을 고려하고 노력한다면 가능성을 높일 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.6148962378501892</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024학년도 동일한 모집단위의 방사선학과를 살펴보면, 다음과 같은 정보가 있습니다:
+- **모집 인원**: 5명
+- **지원 인원**: 36명
+- **경쟁률**: 약 7.2:1 (36/5)
+이 모집단위의 수능 최저 기준은 없습니다.
+**성적 분석**:
+- **국어 + 수학 + 탐구(2개) 표준 변환 점수 합 평균 / 표준 편차**: { 2.80 / 0.74 }
+- **영어 등급 평균 / 표준 편차**: { 3.66 / 1.24 }
+- **수능 4개 영역 등급 평균 / 표준 편차**: { 5.16 / 0.89 }
+**분석 결과**:
+- 지원자의 국어 + 수학 + 탐구(2개) 표준 변환 점수 합이 2.66으로, 이는 평균보다 약간 낮습니다 (평균은 2.80).
+- 영어 등급도 평균치인 3.66에 미치지 못하며, 표준 편차가 높아 점수 분포가 넓다는 것을 의미합니다.
+- 수능 4개 영역 등급 역시 평균치를 밑돌고 있습니다.
+**결론**:
+2.66이라는 점수는 경쟁률이 높은 방사선학과에서 약간 위험할 수 있습니다. 하지만 표준 편차가 높다는 점을 고려하면, 다른 지원자들 중에서도 상대적으로 낮은 점수가 있을 가능성이 있습니다. 따라서 이 점수로는 합격 확률이 낮지만, 최종 합격 가능성은 아직 남아 있다고 볼 수 있습니다.
+추가적인 정보와 개인의 전반적인 경쟁력을 고려하여 결정하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.73479163646698</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66이라는 점수만으로는 확실한 답변을 드리기 어렵습니다. 정시 모집의 경우 여러 요소가 고려되므로, 다음과 같은 정보를 확인해보세요:
+1. **전형별 합격 기준**: 경찰행정학과 농어촌 전형의 최저합격 점수와 평균 점수를 확인하세요.
+2. **면접 및 서류 평가**: 이 전형은 면접이나 서류평가도 포함되므로, 해당 부분에서도 좋은 성적을 받는 것이 중요합니다.
+3. **전체 지원자 수**: 경쟁률이 높다면, 3.66이라는 점수로 합격하기는 어렵겠지만, 낮다면 가능성이 있습니다.
+4. **대학별 정원 및 지원 인원**: 해당 전형의 모집인원과 지원 인원을 확인해보세요.
+5. **개인 특성**: 면접이나 서류평가에서 개인적 특성이나 경험 등을 잘 보여줄 수 있다면 이점이 있을 수 있습니다.
+일반적으로 3.66이라는 점수는 중간 정도의 성적이므로, 경쟁률과 모집인원을 고려하면 합격 가능성은 있으나 확실하지 않습니다. 정확한 판단을 위해서는 해당 전형의 최종합격자 명단이나 기준 등을 확인해보시는 것이 좋습니다.
+추가적으로, 동의대학교 입학관리 홈페이지나 관련 공지사항을 확인하시거나, 대학 관계자에게 직접 문의하시는 것도 도움이 될 수 있습니다. https://ipsi.deu.ac.kr/main.do 에서 더 자세한 정보를 얻으실 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.769972562789917</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25위라는 위치에서 합격할 확률은 상당히 낮습니다. 하지만 모든 것이 불확실하기 때문에 완전히 포기하지는 마세요. 다음과 같은 방법들을 고려해볼 수 있습니다:
+1. **성적 향상**: 현재 성적이 좋은 과목에 집중하여 점수를 높이는 것이 중요합니다.
+2. **추천서 작성**: 강사나 선생님들로부터 추천서를 받아 학교생활에서의 성실함과 능력을 보여줄 수 있습니다.
+3. **면접 준비**: 일부 학과에서는 면접을 실시하므로, 면접 기회를 얻는다면 준비하는 것이 좋습니다.
+4. **추가 지원**: 다른 대학이나 전형에 지원하여 폭넓게 입학 경쟁을 해볼 수 있습니다.
+5. **정보 확인**: 학교 홈페이지나 입학처와 상담하여 최신 정보를 확인하고, 필요하다면 추가 자료 제출 등을 고려해보세요.
+6. **동점자 처리 기준 이해**: 동점자 처리 기준을 잘 이해하고, 자신의 성적과 경쟁자의 성적을 비교해볼 수 있습니다.
+이러한 방법들을 통해 합격 가능성은 조금이라도 높일 수 있을 것입니다. 그러나 최종 결정권은 입학심사위원회에 있으므로, 최선을 다하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.6946387887001038</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부에 대한 정확한 합격 기준을 말씀드리기는 어렵습니다. 하지만, 일반적으로 다음과 같은 요소들을 고려할 수 있습니다:
+1. **최근 몇 년간의 입학정원과 지원자 수**: 이 정보를 통해 대략적인 경쟁률을 파악할 수 있습니다.
+2. **수능 최저 합격 기준**: 동의대학교는 수능 위주 전형으로 운영되므로, 최근 몇 년간의 수능 최저합격 점수를 참고해야 합니다.
+3. **학생부 교과성적 평균**: 법경찰행정학부는 일반적으로 높은 학생부 성적이 요구되는 편입니다. 최근 몇 년간의 합격자들의 학생부 성적을 분석하면 도움이 될 수 있습니다.
+4. **면접 평균 점수**: 법경찰행정학부는 면접 평가도 중요하게 고려하므로, 이전 입학생들의 면접 평균 점수를 참고해야 합니다.
+5. **실기/실적 평균 점수 (만약 해당한다면)**: 일부 전형에서는 실기나 실적을 요구하기도 하므로, 이를 포함해 평균 성적을 판단하는 것이 좋습니다.
+### 예시 데이터
+- **2023년 법경찰행정학부 수능 최저합격 기준**:
+  - 국어: 85점 이상
+  - 수학: 70점 이상
+  - 영어: 4등급 이상
+  - 탐구(2개 과목): 1등급 이상
+- **2023년 법경찰행정학부 학생부 평균 성적**:
+  - 국어: 95점 이상
+  - 수학: 85점 이상
+  - 영어: 4.5 등급 이상
+  - 탐구(2개 과목): 1등급 이상
+- **2023년 법경찰행정학부 면접 평균 점수**:
+  - 합격자 평균: 80점 이상
+### 추천 전략
+1. **성적 향상**: 국어, 수학, 영어 등 주요 과목에서 높은 성적을 받는 것이 중요합니다.
+2. **학생부 관리**: 학생부 교과성적이 높은 학생들은 유리하므로, 진로선택과목에서도 좋은 성적을 유지해야 합니다.
+3. **면접 준비**: 면접 평가 기준을 잘 이해하고, 지원동기와 학업계획 등을 철저히 준비해야 합니다.
+### 참고 자료
+- 동의대학교 입학처 홈페이지에서 2024년 정시 모집요강과 최근 몇 년간의 입학정원, 지원자 수 등의 정보를 확인할 수 있습니다.
+- 입학사정관들의 면접 평가 기준을 잘 이해하고 준비해야 합니다.
+이러한 정보들을 종합적으로 고려하여 합격 가능성을 높일 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.7099934816360474</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과의 모집요강을 보면, 지원자의 성적 평균 및 등급이 다음과 같이 기재되어 있습니다:
+인문사회과학대학 / 아동학과 / 13 / 11 / 0.85 / 0 / { 240.00 /  23.40 / } / { 5.81 /  1.99 / } / { 6.51 /  0.95 / } / { 340.45 /  36.36 / } /
+이 중 국어, 수학, 영어 등급 평균이 5.81로 기재되어 있습니다.
+지원자의 성적 등급이 5.33이라면, 이는 보육가정상담학과의 평균 등급인 5.81보다 약간 낮습니다. 그러나 동등한 학력 수준을 갖춘 지원자들이 경쟁하는 만큼, 단순히 등급만으로 판단하기에는 부족합니다.
+다음 사항들을 고려해야 합니다:
+1. **경쟁률**: 0.85라는 경쟁률은 매우 낮습니다 (1명당 지원자는 약 1.17명). 이는 합격 가능성에 긍정적입니다.
+2. **전형요소**: 서류평가, 면접 등 다른 평가 요소도 고려됩니다.
+3. **개인 특성**: 창의력, 경험, 동기부여 등의 개인적인 요소도 중요한 역할을 합니다.
+따라서 단순히 등급만으로 판단하기보다는 전반적인 지원 자질과 경쟁률 등을 종합적으로 고려해야 합니다. 만약 지원자의 다른 평가 요소들이 우수하다면 합격 가능성은 높아질 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.7470830082893372</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>3차 충원합격자 발표는 일정 기간 내에 홈페이지를 통해 공지되며, 지원자의 경우 예비 12번으로 등록되었습니다. 이는 아직 최종적으로 결정되지 않은 상태입니다.
+충원 합격 가능성은 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. **등록금 납부 기간**: 지정된 기한 내에 등록금을 납부하지 못하면 합격이 취소될 수 있습니다.
+2. **예비 순위**: 예비 12번으로 등록되어 있으므로, 이전 차수에서 합격자가 포기하거나 등록하지 않으면 충원합격 가능성이 있습니다.
+3. **모집인원**: 결원 발생 시 예비후보 순위에 따라 선발되므로, 현재 모집인원과 결원 상황을 확인해야 합니다.
+따라서 최종 합격 여부는 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지의 기간 동안 합격자 발표를 통해 알 수 있습니다. 이 기간 내에 홈페이지에서 합격여부를 확인하고, 지정된 기한 내에 등록금을 납부하는 것이 중요합니다.
+추가적으로, 동의대학교 입학관리팀으로부터 추가적인 안내를 받는 것도 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.7567724585533142</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수는 상당히 높은 점수입니다. 한국의 대학입학에서는 수능 점수가 학생들의 입학 경쟁력을 크게 좌우합니다.
+1. **4.75점의 가능성**: 
+   - 4.75라는 점수는 매우 높은 수준입니다. 대부분의 고등학생들이 목표로 하는 점수보다 훨씬 높습니다.
+   - 이 점수를 얻기 위해서는 꾸준한 학습과 집중이 필요하며, 특히 국어와 수학에서 높은 성적을 거두어야 합니다.
+2. **유아교육학과의 경우**:
+   - 유아교육학과는 일반적으로 수능 점수가 낮은 편입니다. 이 학과에 지원하는 대부분의 학생들은 4.0점대 또는 그 이하의 성적을 보여줍니다.
+   - 그러나 4.75라는 매우 높은 점수를 가지고 있다면, 유아교육학과에서도 충분히 경쟁력을 갖출 수 있습니다.
+3. **결론**:
+   - 4.75점의 수능 성적을 가지고 있다면, 유아교육학과에 지원하는 것은 가능합니다.
+   - 그러나 이 점수는 매우 높기 때문에, 다른 학생들과의 경쟁에서 우위를 점할 수 있습니다.
+따라서, 4.75점의 수능 성적을 가지고 있다면 유아교육학과에서도 충분히 입학 가능성이 있으며, 이 점수는 매우 높은 경쟁력을 갖추고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.8788734674453735</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 보육·가정상담학과(현재는 아동학과)의 경쟁률과 최종 등록자 성적을 고려해보겠습니다.
+1. **경쟁률 및 지원 인원**:
+   - 보육·가정상담학과(아동학과)의 2024년 모집 인원은 9명이며, 지원 인원이 37명으로 경쟁률이 약 4:1입니다.
+2. **최종 등록자 성적**:
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합 평균은 303.44로, 표준 편차는 10.34입니다.
+   - 영어 등급의 평균은 3.88이며, 수능 4개 영역 등급의 평균은 4.65입니다.
+3. **수능 성적 반영**:
+   - 가군(일반학생전형)에서는 국어, 수학, 영어, 탐구 영역을 모두 반영하며, 각 영역별로 표준점수와 등급 점수를 합산합니다.
+   - 보육·가정상담학과는 일반적으로 경쟁률이 높지 않으므로, 평균적인 수능 성적보다 조금 낮은 점수도 충분히 합격 가능성 있습니다.
+4. **개인 성적**:
+   - 당신의 환산등급이 4.16이라면, 이는 평균 이상의 성적이므로 경쟁률을 고려할 때 좋은 성적입니다.
+   - 특히 탐구 영역에서 높은 점수를 받았다면 더 유리합니다.
+5. **합격 가능성**:
+   - 보육·가정상담학과는 경쟁률이 4:1로 낮으므로, 환산등급이 4.16이라면 충분히 합격 가능성이 있습니다.
+   - 하지만 최종 등록자들의 성적 분포를 고려하면, 조금 더 높은 점수를 받았다면 더욱 안전할 수 있습니다.
+결론적으로, 환산등급 4.16은 경쟁률을 고려할 때 충분히 합격 가능성이 있으나, 탐구 영역에서 높은 점수를 받았다면 더 확실한 합격 가능성이 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.7762460708618164</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>提供的表格信息中并没有直接提到"소프트웨어융합학과"(Software Fusion Department)的具体招生情况。不过，根据您提供的其他表格信息，我们可以做一些推断。
+1. **所属学院和专业**:
+   - "소프트웨어융합학과"（Software Fusion Department）应该属于ICT融合工学部（ICT융합공과대학）。
+2. **参考数据**:
+   - 从ICT融合工学部的其他专业的招生情况可以推测，软件工程相关的专业通常会参考以下科目和分数：
+     - 国语 (Korean) + 数学 (Mathematics) + 探究 (Exploration, 包括 社会探究或科学探究中的两个科目)
+     - 英语等级
+3. **具体要求**:
+   - 根据ICT融合工学部的其他专业的数据，国语、数学和英语等科目的平均标准转换分数（包括加权分）通常在300-400之间。
+   - 英语等级方面，一般需要达到5级或以上。
+4. **参考具体数据**:
+   - 例如，ICT融合工学部的计算机科学与工程专业（컴퓨터공학과）的数据：
+     - 国语 + 数学 + 探究(2个科目) (加权分) 平均：306.69
+     - 英语等级平均：4.13
+综上所述，如果要申请“소프트웨어융합학과”，建议：
+- 国语和数学的总标准转换分数达到300以上。
+- 英语等级至少为5级。
+请注意，这些数据仅供参考。具体要求可能会有所不同，请务必参考学校官方发布的最新招生简章或咨询相关部门以获取准确信息。</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.4040826261043549</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 나군 학생부종합(조기취업형계약학과전형)의 경우, 면접 점수와 서류 평가 점수가 각각 중요하게 고려됩니다. 특히 서류 평가는 세특 내용을 많이 보고 있습니다.
+1. **면접 점수 vs 서류 평가**:
+   - **면접 점수**: 학업역량과 전공적합성에 대한 질문에 답변하는 과정에서 개인의 문제 해결 능력, 진로 탐색 능력 등을 평가합니다.
+   - **서류 평가 (세특 내용)**: 학교생활기록부와 제출 서류를 통해 학업역량, 전공적합성, 공동체 역량 등을 평가합니다. 세특 내용이 중요하게 평가되므로, 이 부분을 잘 준비하는 것이 좋습니다.
+2. **서류 준비**:
+   - **제출서류**: 고교 졸업(예정)자나 검정고시 출신자는 학교생활기록부를 제출해야 합니다. 외국고교 졸업 예정자는 공증받은 외국고교 졸업 증명서와 성적증명서를 제출해야 합니다.
+   - **세특 내용**: 세특(세부능력 및 특기사항)을 구체적으로 기재하고, 학교생활기록부에 기재된 내용과 일치하도록 준비해야 합니다. 과장되거나 모호한 내용은 피하는 것이 좋습니다.
+따라서, 서류를 작성할 때 세특 내용을 잘 준비하고, 학교생활기록부와 제출 서류가 일관되게 작성되어야 합니다. 이를 통해 면접과 서류 평가 모두에서 좋은 점수를 받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.5201650857925415</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>4.08이라는 점수만으로는 확실한 답변을 드리기 어렵습니다. 하지만 다음과 같은 정보를 참고해보겠습니다.
+1. **동의대학교 소프트웨어공학부의 모집인원과 지원자 수**:
+   - 동의대학교 소프트웨어공학부는 30명을 모집합니다.
+   - 지원자는 146명이었습니다 (표에서 확인 가능).
+2. **경쟁률**:
+   - 경쟁률은 146:30으로 약 4.87입니다.
+3. **최종합격자의 성적 분포**:
+   - 최초합격자 중 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 310.88이고, 표준 편차는 7.67입니다.
+   - 영어 등급의 평균은 4.08이며, 표준 편차는 1.00입니다.
+4. **성적 분석**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 310.88이고, 4.08는 이보다 약간 낮습니다.
+   - 영어 등급의 평균이 4.08과 일치하므로, 이 부분에서는 경쟁력이 있습니다.
+5. **경쟁률**:
+   - 현재 동의대학교 소프트웨어공학부의 경쟁률은 약 4.87입니다.
+   - 4.08이라는 점수는 평균보다 낮지만, 최초합격자 중에는 이보다 낮은 점수가 있는 경우도 있을 수 있습니다.
+따라서, 4.08의 성적만으로는 확실한 합격을 보장할 수 없습니다. 하지만 경쟁률이 높지 않은 모집단위에서나, 다른 과목들의 성적이 우수하다면 가능성이 있습니다. 
+**추천 사항**:
+- 다른 과목들(국어, 수학, 탐구)의 성적을 확인하고 평균 이상인지 확인하세요.
+- 동의대학교 입학관리 홈페이지를 통해 최종합격자들의 성적 분포를 더 자세히 확인해보세요.
+결론적으로, 4.08이라는 점수로는 확실한 합격을 보장할 수 없지만, 경쟁률이 높지 않은 모집단위에서나 다른 과목들이 우수하다면 가능성이 있습니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.8103893995285034</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看相关专业的录取标准。根据提供的信息，我们可以参考“수능(일반학생전형) 최종등록자”（即最终注册者）表格中的数据来分析。
+从给定的表格中可以看到，不同专业对英语成绩的要求有所不同。例如：
+- 计算机科学与工程系：英语平均等级为 3.18
+- 软件工程系：英语平均等级为 3.77
+这些数据表明，软件工程系的英语要求相对较高。
+但是，仅凭这些信息还不足以确定是否可以被录取。因为实际录取时还会考虑其他因素，如总分、各科目的成绩分布等。此外，每个专业的具体录取标准可能会有所不同，并且每年的标准也可能有所变化。
+因此，如果您的英语成绩是5级（即B等级），那么理论上有可能被软件工程系录取，但具体情况还需要参考当年的具体招生政策和该专业具体的录取分数线。
+建议您查看东国大学官方网站或直接咨询学校招生办公室以获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.5724004507064819</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 지원할 경우, 입학 가능성을 판단하기 위해서는 몇 가지 요인들을 고려해야 합니다.
+1. **전형요소 반영비율**: 신소재공학과는 전형요소 중 수능이 100%로 반영됩니다. 따라서 수능 성적이 중요합니다.
+2. **수능성적 반영방법**: 동의대학교에서는 수능 국어, 수학, 영어, 탐구 영역을 각각 25%씩 반영하며, 수학(미적분 또는 기하) 응시자는 수학 점수가 10% 가산됩니다.
+3. **성적 평균 및 표준편차**: 제공된 표에서 신소재공학과의 성적 평균은 다음과 같습니다:
+   - 국어: 4.27
+   - 수학: 5.37
+   - 영어: 9.86
+4. **성적 분석**:
+   - 국어: 4.28은 평균보다 약간 높습니다.
+   - 수학: 4.28은 평균과 비슷합니다.
+   - 영어: 4.28은 평균보다 약간 낮습니다.
+5. **경쟁률**: 신소재공학과의 모집인원이 56명이고 지원자가 81명이라는 점을 고려하면, 경쟁률이 높아 보입니다.
+따라서, 4.28이라는 성적만으로는 확실하게 입학할 수 있는 것은 아닙니다. 하지만 다음과 같은 조건들을 충족한다면 좋은 기회가 될 수 있습니다:
+- 국어와 수학 성적이 평균 이상이므로 이 부분에서는 경쟁력을 갖추고 있습니다.
+- 영어 성적이 조금 낮지만, 다른 과목의 성적과 함께 고려하면 가능성이 있습니다.
+- 전형요소 중 수능이 100%로 반영되므로, 수능 성적이 높은 학생들에게 유리합니다.
+결론적으로, 4.28이라는 성적만으로는 확실한 입학을 보장할 수 없습니다. 하지만 다른 요인들을 고려하면 충분히 경쟁력을 갖추고 있을 가능성이 있습니다. 최종 결정을 내릴 때는 전반적인 지원 자격과 경쟁률 등을 종합적으로 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.6238946318626404</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수능(일반학생전형)에서는 자기소개서를 제출해야 합니다. 그러나 자세한 내용은 다음과 같습니다:
+1. **제출 필요성**: 일반적으로 수능 전형에서 자기소개서는 지원자의 개인적 특성, 학업계획 등에 대한 설명을 제공하는 중요한 문서입니다.
+2. **제출 방법**: 자기소개서는 온라인으로 제출해야 합니다. 입학관리 홈페이지를 통해 작성하고 제출해야 합니다.
+3. **필수 항목**: 자기소개서에는 지원자의 학업계획, 진로 목표, 특기사항 등이 포함되어야 합니다.
+4. **제한 사항**: 자세한 제출 방법과 형식은 입학관리 홈페이지를 통해 확인할 수 있습니다. 일반적으로 단어 수나 페이지 수가 제한될 수 있습니다.
+따라서, 자기소개서 작성은 필수이며 온라인으로 제출해야 합니다. 자세한 내용은 동의대학교 입학관리 홈페이지를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.6257949471473694</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>东义大学的学分制正试录取分数线为4.5，如果您通过追加招生进入，是否能被录取取决于多个因素：
+1. **剩余名额**：需要查看是否有追加招生的名额。如果还有空缺，那么您有可能被录取。
+2. **竞争情况**：即使有空缺，也需要考虑其他申请者的成绩和条件。如果竞争非常激烈，您的4.5分可能不够竞争力。
+3. **专业要求**：不同专业的录取标准可能会有所不同，需要确认您想申请的专业是否有追加招生计划以及具体的要求。
+建议您可以：
+- 关注学校官网发布的追加招生信息。
+- 了解其他申请者的具体情况和成绩分布。
+- 如果有可能，可以咨询学校的招生办公室获取更准确的信息。
+希望这些信息对您有所帮助！</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.4525339603424072</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 신소재공학과(신소재공학과, 분자나노공학과)는 정시 모집에서 &lt;나&gt;군 수능(일반학생전형)으로 모집됩니다.
+다군 수능(일반학생전형)의 경우 전 모집단위에 대해 100% 수능 성적을 반영한다고 표기되어 있습니다. 
+따라서, 신소재공학과는 수능 성적이 합격 기준이 됩니다. 하지만 정확한 등급 기준은 공시되지 않았습니다.
+일반적으로 대학별로 수능 최저등급을 설정하지 않거나, 특정 등급 이상으로 제한하는 경우도 있으므로, 동의대학교 입학처 웹사이트나 모집요강을 확인하여 가장 정확한 정보를 얻는 것이 좋겠습니다. 
+추가로, 해당 학과의 경쟁률과 지원자들의 평균 성적 등을 고려하여 대략적인 수능 등급 범위를 예측할 수 있지만, 공식 기준은 제공되지 않았습니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.6771001815795898</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 특정 학과의 최종 평균 점수가 작년에 비해 약간 상승하거나 하락하는 것은 가능합니다. 여러 요인들이 이 결과를 초래할 수 있습니다:
+1. 지원자들의 성적 분포 변화: 작년보다 더 높은 점수를 받은 학생들이 많아졌다면, 평균이 상승할 수 있습니다.
+2. 모집 인원의 변동: 작년과 비교해 모집 인원이 늘어나거나 줄어들면, 평균 점수가 달라질 수 있습니다.
+3. 학과별 지원 경쟁도 변화: 일부 학과가 더 많이 지원되면, 해당 학과의 평균 점수가 떨어질 수 있습니다.
+4. 입학사정관의 평가 영향: 일부 모집단위에서는 면접이나 서류평가 등에서 우수한 성적을 받은 지원자들이 많아졌다면, 이로 인해 평균이 상승할 수 있습니다.
+5. 가산점 적용 여부: 특정 학과에 가산점이 적용되었거나 그렇지 않았다면, 이도 평균 점수에 영향을 줄 수 있습니다.
+따라서 작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았다고 해도, 2024년에는 동일한 점수라도 다른 요인들로 인해 평균이 같거나 더 낮아질 수 있습니다. 하지만 확실하게 예측하기는 어렵습니다. 최종 결과는 입학전형 결과 발표를 통해 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.6649430990219116</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3등급의 수능 점수가 신소재공학과(신소재공학과, 분자나노공학과)의 경우 반영비율을 고려하면 충분히 경쟁력을 갖추고 있을 가능성이 있습니다.
+신소재공학과와 분자나노공학과는 다음과 같은 특징이 있습니다:
+1. **반영 비율**: 81명 모집에 122명의 지원자가 경쟁하며, 반영비율은 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목을 반영합니다.
+2. **성적 평균**: 
+   - 국어: 310.88
+   - 수학: 276.61
+   - 영어: 297.28
+3. **등급 평균**:
+   - 국어: 4.33
+   - 수학: 4.70
+   - 영어: 5.59
+4. **표준 변환 점수 합**: 
+   - 국어 + 수학 + 영어 + 한국사 + 사회(역사/도덕 포함) + 과학교과: 385.99
+당신의 예상 성적인 4.1~4.2등급은 이 중간 정도에 해당합니다. 따라서, 경쟁률이 높지만, 평균적인 성적을 고려하면 충분히 합격 가능성이 있습니다.
+**추천 사항:**
+1. **성적 확인**: 실제 성적이 발표되면 다시 한번 확인해보세요.
+2. **면접 준비**: 면접에서도 좋은 인상을 줄 수 있도록 준비하세요.
+3. **서류 준비**: 서류 평가에서 높은 점수를 받을 수 있도록 철저히 준비하세요.
+결론적으로, 4.1~4.2등급의 성적은 신소재공학과에 합격할 가능성이 있습니다. 경쟁률이 높지만, 충분한 기회가 있으므로 최선을 다해 지원하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.8309782147407532</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과 수능 일반학생전형에 대한 정확한 수능 성적 기준은 아직 공개되지 않았습니다. 하지만, 이전 연도의 수능 성적 기준을 참고할 수 있습니다.
+이전 연도인 2023년의 경우, 인공지능학과는 다음과 같은 수능 성적 기준을 따랐습니다:
+- 국어: 105점 이상
+- 수학(미적분): 98점 이상 또는 수학(확률과통계): 104점 이상
+- 영어: 6등급 이상
+이러한 기준은 대략적인 참고용이며, 2024년에는 약간의 변화가 있을 수 있습니다. 정확한 성적 기준을 확인하려면 동의대학교 입학처 웹사이트나 공식 안내서를 참조하시거나, 직접 문의하는 것이 가장 좋습니다.
+추천되는 대비 방법은 다음과 같습니다:
+1. 국어: 105점 이상 목표
+2. 수학: 미적분이나 확률통계 중 높은 점수 목표 (미적분이 더 유리할 수 있음)
+3. 영어: 6등급 이상 목표
+또한, 탐구 과목에서 좋은 성적을 받는 것도 중요합니다. 특히 인공지능 관련 지식과 경험을 가진 교사의 도움을 받는 것이 좋습니다.
+최종적인 수능 성적 기준은 동의대학교 입학처가 공고할 예정이므로, 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.7567192912101746</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体信息：
+1. 您申请的具体专业是什么？
+2. 这个专业的招生标准是多少？
+根据您提供的信息，我可以给出一个大致的判断。从表 "수능 반영영역 및 가산점" 中可以看到，对于大多数理工科和应用科学类专业（如공과대학, ICT융합공과대학），数学成绩占了很大比重，并且有加权。
+您的数学成绩为5.27，在韩国高考中属于较好的水平。但是是否能够被某个特定的专业录取还需要看该专业的具体招生标准，包括总分要求、各科目的权重等。
+建议您查看目标专业在"수능(일반학생전형) 최종등록자"表中的详细信息，特别是该专业的数学和综合成绩要求。如果您的综合成绩（国语+数学+2个选修科目）加上可能的加权分数能够达到或超过目标专业的录取分数线，则有可能被录取。
+另外，请注意不同专业之间可能存在较大差异，有些专业可能会有更高的总分要求或者特定科目的高要求。因此，最好直接参考您申请的专业具体招生标准来做出判断。</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.5631068348884583</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 수능 등급으로 보이는데, 동의대학교 소프트웨어공학부에 지원할 때 이 점수가 충분한지 판단하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. **전형방법**: 소프트웨어공학부는 실기/실적 위주 전형으로, 수능 성적이 40점대 중반인 경우 경쟁률이 높을 가능성이 있습니다.
+2. **모집인원 및 지원자 수**: 해당 학과의 모집인원과 지원자의 수를 확인해야 합니다. 만약 지원자가 많다면 낮은 등급으로 합격하기는 어렵습니다.
+3. **전형요소 비율**: 소프트웨어공학부의 전형요소 반영비율을 확인해 보세요. 예를 들어, 실기/실적 70%, 서류 30%라면 실력이 뛰어난 지원자가 유리할 수 있습니다.
+4. **가산점**: 수능 성적이 4.2이라면 가산점이 적용될 가능성이 있습니다. 이 점수를 포함한 총합을 확인해 보세요.
+5. **경쟁률 및 합격선**: 동의대학교 전체 또는 해당 학과의 최근 몇 년간의 경쟁률과 합격선을 참조하면 더 정확한 판단이 가능합니다.
+6. **추천서 등 추가 자료**: 추천서, 자기소개서 등의 서류평가가 중요한 경우, 이 부분에서 좋은 평가를 받는 것이 중요할 수 있습니다.
+따라서, 4.2의 점수로 소프트웨어공학부에 합격하기 위해서는:
+- 실력이 뛰어난 지원자들과 경쟁해야 합니다.
+- 가산점이 적용될 경우 이점을 활용해야 합니다.
+- 서류평가에서 좋은 평가를 받을 수 있어야 합니다.
+따라서, 현재 정보로만 판단하면 합격 가능성은 낮지만, 최선을 다해 준비한다면 기회는 있습니다. 자세한 정보와 전략을 마련하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.6026161909103394</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>为了确定是否可以申请东义大学化工环境工程学部的一般学生入学类型，我们需要查看几个关键信息：
+1. **成绩计算方法**：根据您提供的信息，3.92的GPA（假设是标准化分数）需要符合该专业的录取标准。
+2. **专业录取要求**：
+   - 根据“水能反应用表”中的信息，化工环境工程学部的一般学生入学类型的要求如下：
+     ```
+     화학환경공학부 / 일반학생전형 / { 3.90 /  154 / } /
+     ```
+3. **比较成绩**：您的成绩为3.92，超过了该专业的最低录取要求3.90。
+综上所述，根据您提供的信息和专业的要求来看，您的成绩是符合化工环境工程学部一般学生入学类型的申请条件的。但是请注意，这只是基于您提供的标准化分数进行的初步判断，具体是否能够被录取还需要考虑其他因素如面试表现等。建议仔细阅读东义大学的具体招生简章，并确保所有信息准确无误。</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.5877255797386169</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 화학환경공학부에 지원하시려면, 수능(일반학생전형)을 통해 지원할 수 있습니다. 하지만 수능 성적과 정시 성적 간의 관련성을 확인해야 합니다.
+1. **수능성적 반영방법**: 
+   - 화학환경공학부는 수능 4개 영역(국어, 수학, 영어, 탐구) 중 표준점수 및 등급점수 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수 ÷ 2로 성적을 반영합니다.
+2. **정시성적 확인**:
+   - 정시 성적이 4.25라면, 이는 수능 성적을 반영하는 방법에 따라 어떻게 변환될까요? 
+   - 일반적으로 수능 성적은 표준점수와 등급으로 변환되어 합산됩니다.
+3. **지원 가능 여부**:
+   - 정시성적이 4.25라면, 이는 좋은 성적입니다. 하지만 화학환경공학부의 경우 수능 최저기준이 없으므로, 이 성적만으로 지원할 수 있는지는 확실하지 않습니다.
+   - 실제 수능 성적을 확인하여 상세한 분석이 필요합니다.
+4. **추가 정보**:
+   - 수능 성적은 합격 여부에 큰 영향을 미칩니다. 정시성적이 좋은 경우에도, 수능 성적이 더 높으면 유리할 수 있습니다.
+   - 모집단위별로 수능 최저기준이 있는지 확인해야 합니다.
+**추천 사항**:
+- **수능 성적 확인**: 실제 수능 성적을 확인하여 상세한 분석을 진행하세요.
+- **모집요강 확인**: 화학환경공학부의 정시 모집요강을 꼭 확인해보세요. 특히, 수능 최저기준이 있는지 확인해야 합니다.
+**결론**:
+정시성적이 4.25라면 좋은 성적입니다. 하지만 실제 수능 성적과 비교하여 결정하는 것이 좋습니다. 만약 수능 성적이 더 높다면, 일반학생전형으로 지원할 가능성이 큽니다. 자세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나 전화로 문의하시는 것을 추천드립니다.
+[입학처 웹사이트](https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.6957640647888184</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 일반적으로 좋은 성적입니다만, 실제로 합격 가능성을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **모집인원과 지원자 수**: 영화학과의 모집인원과 실제 지원자의 수를 확인해야 합니다. 만약 모집인원이 적고 지원자가 많다면 경쟁률이 높아질 수 있습니다.
+2. **경쟁률**: 4.2라는 점수만으로는 경쟁률을 정확히 알기 어렵습니다. 이전 년도의 합격자들의 평균 점수와 비교해볼 필요가 있습니다.
+3. **면접 성적**: 영화학과에서는 면접이 중요한 역할을 합니다. 면접에서 좋은 성적이 나온다면, 전체적으로 더 높은 점수를 받을 수 있습니다.
+4. **전형요소 반영비율**: 영화학과의 전형요소 중 면접 비중이 높다면, 면접 성적도 중요하게 작용할 것입니다.
+따라서, 정확한 답변을 위해서는 다음과 같은 정보를 확인해야 합니다:
+- 2024년 영화학과의 모집인원과 지원자 수
+- 이전 년도 합격자의 평균 점수와 경쟁률
+- 면접 성적
+이런 정보들을 종합적으로 고려하여 합격 가능성을 판단하는 것이 좋습니다. 만약 이러한 정보를 얻기 어렵다면, 대학 입학 홈페이지나 채널을 통해 확인하거나, 입학처에 직접 문의하시는 것을 추천드립니다.
+추가로, 영화학과는 면접에서 창의성이나 표현력 등을 평가하기 때문에, 면접 준비도 철저히 해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.6318825483322144</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 명확한 면접 절차에 대한 내용은 발견되지 않았습니다. 하지만, 일반적으로 대학의 학생부종합전형이나 일부 특별전형에서는 면접이 포함될 수 있습니다. 특히, 예체능 관련 학과나 특정 전문성 요구가 있는 학과에서 면접이 진행될 가능성이 높습니다.
+면접 절차는 대학마다 다르지만, 일반적인 과정은 다음과 같습니다:
+1. **예약**: 면접 일정을 미리 예약합니다.
+2. **준비**: 면접 질문 유형과 학과 특성에 대한 연구를 합니다.
+3. **면접 진행**: 면접관과의 1:1 또는 그룹 면접이 이루어집니다.
+4. **평가**: 면접 성적은 합격 여부 결정에 반영됩니다.
+특정 학과나 전형에서 면접 절차가 다르다면, 해당 대학의 공식 입학전형 안내서를 확인하시거나 입학처에 문의하시는 것이 좋습니다. 동의대학교의 경우, 예체능 관련 학과에서는 실기고사와 함께 면접이 진행될 수 있으므로, 해당 정보도 참고하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.9126941561698914</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.7758017298579216</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.7624943435192109</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.726007589250803</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.7691480366885662</v>
+      <c r="D305" t="n">
+        <v>0.7547678875426451</v>
       </c>
     </row>
   </sheetData>
